--- a/extracteds/Cases/Segunda-Terca.xlsx
+++ b/extracteds/Cases/Segunda-Terca.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Ativo</t>
   </si>
@@ -54,40 +54,64 @@
     <t>ROMI3</t>
   </si>
   <si>
+    <t>AESB3</t>
+  </si>
+  <si>
     <t>BIDI4</t>
   </si>
   <si>
+    <t>AMBP3</t>
+  </si>
+  <si>
     <t>CASH3</t>
   </si>
   <si>
+    <t>AMER3</t>
+  </si>
+  <si>
     <t>LWSA3</t>
   </si>
   <si>
+    <t>AZEV4</t>
+  </si>
+  <si>
     <t>ETER3</t>
   </si>
   <si>
+    <t>AZUL4</t>
+  </si>
+  <si>
     <t>GOLL4</t>
   </si>
   <si>
     <t>INEP4</t>
   </si>
   <si>
+    <t>BMOB3</t>
+  </si>
+  <si>
     <t>BPAC11</t>
   </si>
   <si>
-    <t>AMBP3</t>
+    <t>BRKM5</t>
   </si>
   <si>
     <t>FIQE3</t>
   </si>
   <si>
+    <t>BRSR6</t>
+  </si>
+  <si>
     <t>VIVR3</t>
   </si>
   <si>
+    <t>COGN3</t>
+  </si>
+  <si>
     <t>FHER3</t>
   </si>
   <si>
-    <t>AZEV4</t>
+    <t>DEXP3</t>
   </si>
   <si>
     <r>
@@ -157,6 +181,74 @@
       <t xml:space="preserve">(Variação maior que essa, ex: -3%, não fazer nada!)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Comprar no leilão de fechamento de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>segunda-feira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e vender no leilão de abertura de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>terça-feira</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, desde que a ultima sexta-feira tenha tido uma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">variação positiva, maior ou igual a 0% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Variação maior que essa, ex: -0.2%, não fazer nada!)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +276,12 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor theme="0" tint="-0.499984740745262"/>
+      </patternFill>
+    </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="5"/>
@@ -204,17 +302,18 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -650,9 +749,10 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="10" style="1" width="9.140625"/>
+    <col customWidth="1" min="13" max="13" style="2" width="4.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -671,19 +771,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -692,498 +792,966 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>254</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>39</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>27</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>12</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>0.69230769230769229</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="6">
         <v>0.12831064858177077</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="6">
         <v>3.2900166303018144e-003</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="6">
         <v>-1.0430247718383301e-002</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="6">
         <v>2.0454545454545503e-002</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="5">
         <v>229000</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="5">
         <v>766237.40157480317</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="4">
+        <v>258</v>
+      </c>
+      <c r="P2" s="4">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>16</v>
+      </c>
+      <c r="R2" s="4">
+        <v>8</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T2" s="3">
+        <v>8.6943702539309053e-002</v>
+      </c>
+      <c r="U2" s="3">
+        <v>3.6226542724712104e-003</v>
+      </c>
+      <c r="V2" s="3">
+        <v>-4.5248868778281492e-003</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1.4382402707275865e-002</v>
+      </c>
+      <c r="X2" s="4">
+        <v>330200</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>1315904.6511627906</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7">
+        <v>258</v>
+      </c>
+      <c r="C3" s="7">
+        <v>32</v>
+      </c>
+      <c r="D3" s="7">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.65625</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.1578863592001033</v>
+      </c>
+      <c r="H3" s="8">
+        <v>4.9339487250032281e-003</v>
+      </c>
+      <c r="I3" s="8">
+        <v>-1.6888433981576134e-002</v>
+      </c>
+      <c r="J3" s="8">
+        <v>4.0110650069156151e-002</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1543200</v>
+      </c>
+      <c r="L3" s="7">
+        <v>8898826.3565891478</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="4">
+        <v>258</v>
+      </c>
+      <c r="P3" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>17</v>
+      </c>
+      <c r="R3" s="4">
+        <v>8</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0.68000000000000005</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.11154862470067184</v>
+      </c>
+      <c r="U3" s="3">
+        <v>4.4619449880268737e-003</v>
+      </c>
+      <c r="V3" s="3">
+        <v>-2.7599611273080638e-002</v>
+      </c>
+      <c r="W3" s="3">
+        <v>3.7741046831956115e-002</v>
+      </c>
+      <c r="X3" s="4">
+        <v>179800</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>1096515.1162790698</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7">
+        <v>258</v>
+      </c>
+      <c r="C4" s="7">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.65625</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.22962098562798539</v>
+      </c>
+      <c r="H4" s="8">
+        <v>7.1756558008745433e-003</v>
+      </c>
+      <c r="I4" s="8">
+        <v>-1.9305019305019266e-002</v>
+      </c>
+      <c r="J4" s="8">
+        <v>4.6337817638266054e-002</v>
+      </c>
+      <c r="K4" s="7">
+        <v>4870800</v>
+      </c>
+      <c r="L4" s="7">
+        <v>38807456.201550387</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="4">
+        <v>258</v>
+      </c>
+      <c r="P4" s="4">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>12</v>
+      </c>
+      <c r="R4" s="4">
+        <v>6</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T4" s="3">
+        <v>6.6923441186071631e-002</v>
+      </c>
+      <c r="U4" s="3">
+        <v>3.7179689547817574e-003</v>
+      </c>
+      <c r="V4" s="3">
+        <v>-2.4856096284667561e-002</v>
+      </c>
+      <c r="W4" s="3">
+        <v>3.2540675844805911e-002</v>
+      </c>
+      <c r="X4" s="4">
+        <v>974700</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>6247566.2790697673</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7">
+        <v>258</v>
+      </c>
+      <c r="C5" s="7">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.17181101936331999</v>
+      </c>
+      <c r="H5" s="8">
+        <v>5.2063945261612123e-003</v>
+      </c>
+      <c r="I5" s="8">
+        <v>-2.0000000000000018e-002</v>
+      </c>
+      <c r="J5" s="8">
+        <v>4.0840140023337135e-002</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2114000</v>
+      </c>
+      <c r="L5" s="7">
+        <v>10419195.34883721</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="7">
+        <v>258</v>
+      </c>
+      <c r="P5" s="7">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>16</v>
+      </c>
+      <c r="R5" s="7">
+        <v>6</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="T5" s="8">
+        <v>0.30249225723268636</v>
+      </c>
+      <c r="U5" s="8">
+        <v>1.3749648056031199e-002</v>
+      </c>
+      <c r="V5" s="8">
+        <v>-1.7910447761193993e-002</v>
+      </c>
+      <c r="W5" s="8">
+        <v>6.8249258160237414e-002</v>
+      </c>
+      <c r="X5" s="7">
+        <v>109300</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>682904.26356589142</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7">
+        <v>254</v>
+      </c>
+      <c r="C6" s="7">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.17633039487318991</v>
+      </c>
+      <c r="H6" s="8">
+        <v>5.0380112820911406e-003</v>
+      </c>
+      <c r="I6" s="8">
+        <v>-2.083333333333337e-002</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3.8895859473023764e-002</v>
+      </c>
+      <c r="K6" s="7">
+        <v>533300</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2092413.3858267716</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="4">
+        <v>258</v>
+      </c>
+      <c r="P6" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>15</v>
+      </c>
+      <c r="R6" s="4">
+        <v>8</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.11680595949797312</v>
+      </c>
+      <c r="U6" s="3">
+        <v>5.0785199781727443e-003</v>
+      </c>
+      <c r="V6" s="3">
+        <v>-1.1651469098277412e-002</v>
+      </c>
+      <c r="W6" s="3">
+        <v>4.8387096774193505e-002</v>
+      </c>
+      <c r="X6" s="4">
+        <v>1602600</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>7241346.5116279069</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4">
+        <v>258</v>
+      </c>
+      <c r="C7" s="4">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.12312530845304226</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.5178659558012075e-003</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-2.092380576391617e-002</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3.9076376554174175e-002</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1869000</v>
+      </c>
+      <c r="L7" s="4">
+        <v>6478226.3565891469</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="7">
+        <v>258</v>
+      </c>
+      <c r="P7" s="7">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>16</v>
+      </c>
+      <c r="R7" s="7">
+        <v>6</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0.15454538280289054</v>
+      </c>
+      <c r="U7" s="8">
+        <v>7.0247901274041154e-003</v>
+      </c>
+      <c r="V7" s="8">
+        <v>-1.6888433981576134e-002</v>
+      </c>
+      <c r="W7" s="8">
+        <v>4.0110650069156151e-002</v>
+      </c>
+      <c r="X7" s="7">
+        <v>1543200</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>8898826.3565891478</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7">
+        <v>254</v>
+      </c>
+      <c r="C8" s="7">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7">
+        <v>11</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.42696105661074657</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.2198887331735617e-002</v>
+      </c>
+      <c r="I8" s="8">
+        <v>-2.1428571428571241e-002</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.19708029197080301</v>
+      </c>
+      <c r="K8" s="7">
+        <v>158700</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1051957.0866141731</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="4">
+        <v>258</v>
+      </c>
+      <c r="P8" s="4">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>16</v>
+      </c>
+      <c r="R8" s="4">
+        <v>5</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.12678823428900599</v>
+      </c>
+      <c r="U8" s="3">
+        <v>6.0375349661431418e-003</v>
+      </c>
+      <c r="V8" s="3">
+        <v>-4.4682752457549935e-003</v>
+      </c>
+      <c r="W8" s="3">
+        <v>2.3715415019762709e-002</v>
+      </c>
+      <c r="X8" s="4">
+        <v>258600</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>966658.13953488367</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4">
+        <v>258</v>
+      </c>
+      <c r="C9" s="4">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.153441609801375</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3.6533716619374999e-003</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-2.2082018927444769e-002</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3.0312802321831533e-002</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3671700</v>
+      </c>
+      <c r="L9" s="4">
+        <v>13400720.930232558</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="4">
+        <v>258</v>
+      </c>
+      <c r="P9" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>15</v>
+      </c>
+      <c r="R9" s="4">
+        <v>8</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.1130596808004235</v>
+      </c>
+      <c r="U9" s="3">
+        <v>4.9156382956705869e-003</v>
+      </c>
+      <c r="V9" s="3">
+        <v>-2.2082018927444769e-002</v>
+      </c>
+      <c r="W9" s="3">
+        <v>3.0312802321831533e-002</v>
+      </c>
+      <c r="X9" s="4">
+        <v>3671700</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>13400720.930232558</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4">
+        <v>258</v>
+      </c>
+      <c r="C10" s="4">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4">
         <v>13</v>
       </c>
-      <c r="B3" s="5">
+      <c r="F10" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.14362478631265951</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3.6826868285297311e-003</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-2.7599611273080638e-002</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3.7741046831956115e-002</v>
+      </c>
+      <c r="K10" s="4">
+        <v>179800</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1096515.1162790698</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="4">
         <v>258</v>
       </c>
-      <c r="C3" s="5">
+      <c r="P10" s="4">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>14</v>
+      </c>
+      <c r="R10" s="4">
+        <v>6</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="T10" s="3">
+        <v>7.4970900569165e-002</v>
+      </c>
+      <c r="U10" s="3">
+        <v>3.7485450284582499e-003</v>
+      </c>
+      <c r="V10" s="3">
+        <v>-1.6689847009735637e-002</v>
+      </c>
+      <c r="W10" s="3">
+        <v>3.912196848999816e-002</v>
+      </c>
+      <c r="X10" s="4">
+        <v>1077600</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>3292005.0387596898</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4">
+        <v>199</v>
+      </c>
+      <c r="C11" s="4">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.19259517439283724</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6.6412129100978361e-003</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-2.821869488536155e-002</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2.9874213836477814e-002</v>
+      </c>
+      <c r="K11" s="4">
+        <v>136400</v>
+      </c>
+      <c r="L11" s="4">
+        <v>817496.48241206026</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="4">
+        <v>258</v>
+      </c>
+      <c r="P11" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>16</v>
+      </c>
+      <c r="R11" s="4">
+        <v>7</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="T11" s="3">
+        <v>7.7342538868136024e-002</v>
+      </c>
+      <c r="U11" s="3">
+        <v>3.3627190812233055e-003</v>
+      </c>
+      <c r="V11" s="3">
+        <v>-8.2644628099173278e-003</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1.2807881773398977e-002</v>
+      </c>
+      <c r="X11" s="4">
+        <v>625700</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>2094236.046511628</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4">
+        <v>254</v>
+      </c>
+      <c r="C12" s="4">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.24627651848412457</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8.4922937408318817e-003</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-6.4377682403433445e-002</v>
+      </c>
+      <c r="J12" s="3">
+        <v>7.7405857740585837e-002</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1296900</v>
+      </c>
+      <c r="L12" s="4">
+        <v>12399431.88976378</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="4">
+        <v>258</v>
+      </c>
+      <c r="P12" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>13</v>
+      </c>
+      <c r="R12" s="4">
+        <v>6</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.10947574892413103</v>
+      </c>
+      <c r="U12" s="3">
+        <v>5.7618815223226859e-003</v>
+      </c>
+      <c r="V12" s="3">
+        <v>-1.2605042016806678e-002</v>
+      </c>
+      <c r="W12" s="3">
+        <v>3.6363636363636376e-002</v>
+      </c>
+      <c r="X12" s="4">
+        <v>12408800</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>38247706.201550387</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4">
+        <v>258</v>
+      </c>
+      <c r="C13" s="4">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.65384615384615385</v>
+      </c>
+      <c r="G13" s="3">
+        <v>9.0211323439283508e-002</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.4696662861262886e-003</v>
+      </c>
+      <c r="I13" s="3">
+        <v>-0.11358490566037738</v>
+      </c>
+      <c r="J13" s="3">
+        <v>5.5555555555555358e-002</v>
+      </c>
+      <c r="K13" s="4">
+        <v>457400</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2346877.9069767441</v>
+      </c>
+      <c r="N13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="5">
-        <v>21</v>
-      </c>
-      <c r="E3" s="5">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.65625</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.1578863592001033</v>
-      </c>
-      <c r="H3" s="6">
-        <v>4.9339487250032281e-003</v>
-      </c>
-      <c r="I3" s="6">
-        <v>-1.6888433981576134e-002</v>
-      </c>
-      <c r="J3" s="6">
-        <v>4.0110650069156151e-002</v>
-      </c>
-      <c r="K3" s="5">
-        <v>1543200</v>
-      </c>
-      <c r="L3" s="5">
-        <v>8898826.3565891478</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="O13" s="7">
         <v>258</v>
       </c>
-      <c r="C4" s="5">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.65625</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.22962098562798539</v>
-      </c>
-      <c r="H4" s="6">
-        <v>7.1756558008745433e-003</v>
-      </c>
-      <c r="I4" s="6">
-        <v>-1.9305019305019266e-002</v>
-      </c>
-      <c r="J4" s="6">
-        <v>4.6337817638266054e-002</v>
-      </c>
-      <c r="K4" s="5">
-        <v>4870800</v>
-      </c>
-      <c r="L4" s="5">
-        <v>38807456.201550387</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="P13" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>12</v>
+      </c>
+      <c r="R13" s="7">
+        <v>6</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T13" s="8">
+        <v>0.1690615362894099</v>
+      </c>
+      <c r="U13" s="8">
+        <v>9.3923075716338834e-003</v>
+      </c>
+      <c r="V13" s="8">
+        <v>-9.302325581395321e-003</v>
+      </c>
+      <c r="W13" s="8">
+        <v>4.0772532188841026e-002</v>
+      </c>
+      <c r="X13" s="7">
+        <v>148400</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>586444.57364341081</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4">
         <v>258</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C14" s="4">
         <v>33</v>
       </c>
-      <c r="D5" s="5">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.17181101936331999</v>
-      </c>
-      <c r="H5" s="6">
-        <v>5.2063945261612123e-003</v>
-      </c>
-      <c r="I5" s="6">
-        <v>-2.0000000000000018e-002</v>
-      </c>
-      <c r="J5" s="6">
-        <v>4.0840140023337135e-002</v>
-      </c>
-      <c r="K5" s="5">
-        <v>2114000</v>
-      </c>
-      <c r="L5" s="5">
-        <v>10419195.34883721</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5">
-        <v>254</v>
-      </c>
-      <c r="C6" s="5">
-        <v>35</v>
-      </c>
-      <c r="D6" s="5">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.17633039487318991</v>
-      </c>
-      <c r="H6" s="6">
-        <v>5.0380112820911406e-003</v>
-      </c>
-      <c r="I6" s="6">
-        <v>-2.083333333333337e-002</v>
-      </c>
-      <c r="J6" s="6">
-        <v>3.8895859473023764e-002</v>
-      </c>
-      <c r="K6" s="5">
-        <v>533300</v>
-      </c>
-      <c r="L6" s="5">
-        <v>2092413.3858267716</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7">
-        <v>258</v>
-      </c>
-      <c r="C7" s="7">
-        <v>35</v>
-      </c>
-      <c r="D7" s="7">
-        <v>23</v>
-      </c>
-      <c r="E7" s="7">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.12312530845304226</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3.5178659558012075e-003</v>
-      </c>
-      <c r="I7" s="2">
-        <v>-2.092380576391617e-002</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3.9076376554174175e-002</v>
-      </c>
-      <c r="K7" s="7">
-        <v>1869000</v>
-      </c>
-      <c r="L7" s="7">
-        <v>6478226.3565891469</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5">
-        <v>254</v>
-      </c>
-      <c r="C8" s="5">
-        <v>35</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="D14" s="4">
         <v>24</v>
       </c>
-      <c r="E8" s="5">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.68571428571428572</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.42696105661074657</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1.2198887331735617e-002</v>
-      </c>
-      <c r="I8" s="6">
-        <v>-2.1428571428571241e-002</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0.19708029197080301</v>
-      </c>
-      <c r="K8" s="5">
-        <v>158700</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1051957.0866141731</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7">
-        <v>258</v>
-      </c>
-      <c r="C9" s="7">
-        <v>42</v>
-      </c>
-      <c r="D9" s="7">
-        <v>28</v>
-      </c>
-      <c r="E9" s="7">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.153441609801375</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3.6533716619374999e-003</v>
-      </c>
-      <c r="I9" s="2">
-        <v>-2.2082018927444769e-002</v>
-      </c>
-      <c r="J9" s="2">
-        <v>3.0312802321831533e-002</v>
-      </c>
-      <c r="K9" s="7">
-        <v>3671700</v>
-      </c>
-      <c r="L9" s="7">
-        <v>13400720.930232558</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7">
-        <v>258</v>
-      </c>
-      <c r="C10" s="7">
-        <v>39</v>
-      </c>
-      <c r="D10" s="7">
-        <v>26</v>
-      </c>
-      <c r="E10" s="7">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.14362478631265951</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3.6826868285297311e-003</v>
-      </c>
-      <c r="I10" s="2">
-        <v>-2.7599611273080638e-002</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3.7741046831956115e-002</v>
-      </c>
-      <c r="K10" s="7">
-        <v>179800</v>
-      </c>
-      <c r="L10" s="7">
-        <v>1096515.1162790698</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="7">
-        <v>199</v>
-      </c>
-      <c r="C11" s="7">
-        <v>29</v>
-      </c>
-      <c r="D11" s="7">
-        <v>19</v>
-      </c>
-      <c r="E11" s="7">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.65517241379310343</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.19259517439283724</v>
-      </c>
-      <c r="H11" s="2">
-        <v>6.6412129100978361e-003</v>
-      </c>
-      <c r="I11" s="2">
-        <v>-2.821869488536155e-002</v>
-      </c>
-      <c r="J11" s="2">
-        <v>2.9874213836477814e-002</v>
-      </c>
-      <c r="K11" s="7">
-        <v>136400</v>
-      </c>
-      <c r="L11" s="7">
-        <v>817496.48241206026</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="7">
-        <v>254</v>
-      </c>
-      <c r="C12" s="7">
-        <v>29</v>
-      </c>
-      <c r="D12" s="7">
-        <v>19</v>
-      </c>
-      <c r="E12" s="7">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.65517241379310343</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.24627651848412457</v>
-      </c>
-      <c r="H12" s="2">
-        <v>8.4922937408318817e-003</v>
-      </c>
-      <c r="I12" s="2">
-        <v>-6.4377682403433445e-002</v>
-      </c>
-      <c r="J12" s="2">
-        <v>7.7405857740585837e-002</v>
-      </c>
-      <c r="K12" s="7">
-        <v>1296900</v>
-      </c>
-      <c r="L12" s="7">
-        <v>12399431.88976378</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="7">
-        <v>258</v>
-      </c>
-      <c r="C13" s="7">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7">
-        <v>17</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="E14" s="4">
         <v>9</v>
       </c>
-      <c r="F13" s="2">
-        <v>0.65384615384615385</v>
-      </c>
-      <c r="G13" s="2">
-        <v>9.0211323439283508e-002</v>
-      </c>
-      <c r="H13" s="2">
-        <v>3.4696662861262886e-003</v>
-      </c>
-      <c r="I13" s="2">
-        <v>-0.11358490566037738</v>
-      </c>
-      <c r="J13" s="2">
-        <v>5.5555555555555358e-002</v>
-      </c>
-      <c r="K13" s="7">
-        <v>457400</v>
-      </c>
-      <c r="L13" s="7">
-        <v>2346877.9069767441</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="7">
-        <v>258</v>
-      </c>
-      <c r="C14" s="7">
-        <v>33</v>
-      </c>
-      <c r="D14" s="7">
-        <v>24</v>
-      </c>
-      <c r="E14" s="7">
-        <v>9</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>0.72727272727272729</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>0.25023011714933685</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>7.5827308227071769e-003</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <v>-0.11649214659685858</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <v>6.8249258160237414e-002</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="4">
         <v>109300</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="4">
         <v>682904.26356589142</v>
       </c>
     </row>
@@ -1195,134 +1763,239 @@
       <c r="J15" s="1"/>
     </row>
     <row r="18">
-      <c r="B18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="O19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
     </row>
     <row r="20">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
     </row>
     <row r="21">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
     </row>
     <row r="22">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
     </row>
     <row r="23">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
     </row>
     <row r="24">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
     </row>
     <row r="25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
     </row>
     <row r="26">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
     </row>
     <row r="27">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B18:K27"/>
+    <mergeCell ref="O19:X28"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/extracteds/Cases/Segunda-Terca.xlsx
+++ b/extracteds/Cases/Segunda-Terca.xlsx
@@ -178,7 +178,8 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(Variação maior que essa, ex: -3%, não fazer nada!)</t>
+      <t xml:space="preserve">(Variação maior que essa, ex: -3%, não fazer nada!)
+caseSegundaTerca(Sexta).py</t>
     </r>
   </si>
   <si>
@@ -246,7 +247,8 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(Variação maior que essa, ex: -0.2%, não fazer nada!)</t>
+      <t xml:space="preserve">(Variação maior que essa, ex: 
+-0.2%, não fazer nada!)</t>
     </r>
   </si>
 </sst>
@@ -745,7 +747,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
+    <sheetView topLeftCell="A4" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
